--- a/resource/reports/teams_scores_1.xlsx
+++ b/resource/reports/teams_scores_1.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="团队成绩报表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="团队成绩报表" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,45 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>作业标题\团队</t>
   </si>
   <si>
-    <t>test tean 1</t>
-  </si>
-  <si>
-    <t>团队1</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>作业1</t>
-  </si>
-  <si>
-    <t>作业233</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>23333</t>
+    <t>TestTeam</t>
+  </si>
+  <si>
+    <t>TestCourseTeam</t>
+  </si>
+  <si>
+    <t>作业测试0630</t>
+  </si>
+  <si>
+    <t>作业测试withX</t>
   </si>
   <si>
     <t>加权总成绩</t>
@@ -391,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,17 +405,6 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -451,139 +416,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.9</v>
       </c>
     </row>
   </sheetData>
